--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277172.2142679641</v>
+        <v>351085.6767706225</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11790039.0045398</v>
+        <v>11818740.41448537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12580513.79884684</v>
+        <v>12620001.3920105</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7265547.160868153</v>
+        <v>7236873.952960488</v>
       </c>
     </row>
     <row r="11">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,23 +1214,23 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="G9" t="n">
-        <v>4.018462044011843</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S9" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="S10" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X10" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>244.8448976285501</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>263.7138800015061</v>
+        <v>6.396723986041065</v>
       </c>
     </row>
     <row r="12">
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>92.53086285221633</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>52.56681753866683</v>
       </c>
     </row>
     <row r="13">
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>232.4108695482292</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>41.18635503611011</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>116.9725659584294</v>
+        <v>6.396723986041431</v>
       </c>
       <c r="W14" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y14" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>158.8501001935239</v>
       </c>
       <c r="V15" t="n">
-        <v>226.8014639334379</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,28 +1809,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R16" t="n">
-        <v>127.5046028836639</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>112.2032490546976</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>250.8221028146881</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>296.5549792672363</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>296.5549792672363</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>150.280517176918</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>310.4841105240645</v>
       </c>
       <c r="I17" t="n">
-        <v>110.9251085616634</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.7041246826298</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1191907740798</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.6234970422765</v>
       </c>
       <c r="X17" t="n">
-        <v>296.5549792672363</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>15.95395711975019</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9619112068852</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.37707135552867</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.0598316600978</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8504869522692</v>
+        <v>225.8417374068498</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>111.5699663931822</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8326873358276</v>
+        <v>138.1557953708608</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2558497916201</v>
+        <v>286.2497681403778</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>196.9489727920536</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>296.5549792672364</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>368.381252484986</v>
       </c>
       <c r="F20" t="n">
-        <v>296.5549792672364</v>
+        <v>368.381252484986</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>261.2056257385817</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>296.5549792672364</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>324.4702071887754</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>368.381252484986</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>118.9416715376474</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.6076060749493</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>37.2492533926752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.37707135552867</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.5501581092183</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.0598316600978</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8504869522692</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>63.49615675890514</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>58.35140905473413</v>
       </c>
       <c r="E22" t="n">
-        <v>77.25866179129024</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>201.8876394888364</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2558497916201</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>43.05355939704617</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>258.2471978122849</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646391</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705012</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>108.5951667730913</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>85.57684751289324</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>233.8683425764951</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>117.2278100992625</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>134.3646350838602</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T27" t="n">
         <v>192.0665623188214</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>95.55332328986114</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>262.1760984877388</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.148340092226</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>32.51230865898694</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.22295923705128</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>144.053707652439</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>62.15530575449299</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>202.8636338531179</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>144.5515187091568</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>103.3387326418232</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>27.91082252075539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>76.26075092751307</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>206.6581849802338</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>317.456845561851</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705128</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838602</v>
       </c>
       <c r="T36" t="n">
         <v>192.0665623188214</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>110.3838034696614</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.06976758835556</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>201.7472219657274</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
         <v>65.70991267247047</v>
@@ -3556,22 +3556,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>162.9848195363583</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838592</v>
       </c>
       <c r="T39" t="n">
         <v>192.0665623188214</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>62.17277348101913</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>110.3838034696614</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>82.66265990630876</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
         <v>65.70991267247047</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>17.45420878281813</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.08633212503965</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
         <v>220.7486959972119</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.3387326418232</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>209.3391045672508</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>89.40784442793814</v>
       </c>
       <c r="U44" t="n">
         <v>251.045250128462</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4109,7 +4109,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T45" t="n">
-        <v>192.0665623188213</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U45" t="n">
         <v>225.8092030868072</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>95.65907486292599</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>82.32378736811867</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C8" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D8" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E8" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F8" t="n">
         <v>0.36498292861143</v>
@@ -4804,7 +4804,7 @@
         <v>0.36498292861143</v>
       </c>
       <c r="J8" t="n">
-        <v>4.881646670177876</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K8" t="n">
         <v>4.881646670177876</v>
@@ -4834,22 +4834,22 @@
         <v>9.032405809070742</v>
       </c>
       <c r="T8" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="U8" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="V8" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W8" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X8" t="n">
         <v>4.973353239361809</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="9">
@@ -4862,19 +4862,19 @@
         <v>13.64077611982112</v>
       </c>
       <c r="C9" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D9" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E9" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F9" t="n">
-        <v>4.424035498320363</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="G9" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H9" t="n">
         <v>0.36498292861143</v>
@@ -4889,13 +4889,13 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L9" t="n">
-        <v>4.69915520587216</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M9" t="n">
-        <v>9.215818947438606</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N9" t="n">
-        <v>13.73248268900505</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O9" t="n">
         <v>18.2491464305715</v>
@@ -4907,7 +4907,7 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R9" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S9" t="n">
         <v>13.64077611982112</v>
@@ -4968,7 +4968,7 @@
         <v>4.881646670177876</v>
       </c>
       <c r="L10" t="n">
-        <v>9.215818947438606</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M10" t="n">
         <v>9.215818947438606</v>
@@ -4977,34 +4977,34 @@
         <v>13.73248268900505</v>
       </c>
       <c r="O10" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P10" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R10" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="S10" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="T10" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="U10" t="n">
-        <v>9.032405809070742</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="V10" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W10" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="X10" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y10" t="n">
         <v>0.36498292861143</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.4151888127974</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="C11" t="n">
-        <v>268.4151888127974</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="D11" t="n">
-        <v>268.4151888127974</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="E11" t="n">
-        <v>268.4151888127974</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F11" t="n">
-        <v>21.09711040012049</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G11" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H11" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I11" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J11" t="n">
-        <v>49.28269087917573</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K11" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L11" t="n">
-        <v>294.5174947515904</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M11" t="n">
-        <v>495.5981834030602</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N11" t="n">
-        <v>704.5463761991317</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O11" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P11" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q11" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R11" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S11" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="T11" t="n">
-        <v>1054.855520006025</v>
+        <v>400.302954365912</v>
       </c>
       <c r="U11" t="n">
-        <v>801.1705019471533</v>
+        <v>400.302954365912</v>
       </c>
       <c r="V11" t="n">
-        <v>801.1705019471533</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="W11" t="n">
-        <v>801.1705019471533</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="X11" t="n">
-        <v>801.1705019471533</v>
+        <v>210.8831693494275</v>
       </c>
       <c r="Y11" t="n">
-        <v>534.7928453799753</v>
+        <v>204.4218319897901</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>398.4938728567101</v>
+        <v>507.5847681551912</v>
       </c>
       <c r="C12" t="n">
-        <v>305.0283548241683</v>
+        <v>507.5847681551912</v>
       </c>
       <c r="D12" t="n">
-        <v>305.0283548241683</v>
+        <v>507.5847681551912</v>
       </c>
       <c r="E12" t="n">
-        <v>305.0283548241683</v>
+        <v>348.3473131497357</v>
       </c>
       <c r="F12" t="n">
-        <v>158.4937968510533</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="G12" t="n">
-        <v>21.09711040012049</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H12" t="n">
-        <v>21.09711040012049</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I12" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K12" t="n">
-        <v>95.78113116957465</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L12" t="n">
-        <v>242.5255548298713</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M12" t="n">
-        <v>433.1262439263951</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N12" t="n">
-        <v>643.1802110290001</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O12" t="n">
-        <v>813.1187583557299</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P12" t="n">
-        <v>930.1763583891335</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q12" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R12" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S12" t="n">
-        <v>887.8833378166544</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T12" t="n">
-        <v>887.8833378166544</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U12" t="n">
-        <v>887.8833378166544</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V12" t="n">
-        <v>652.7312295849117</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W12" t="n">
-        <v>398.4938728567101</v>
+        <v>560.682563648794</v>
       </c>
       <c r="X12" t="n">
-        <v>398.4938728567101</v>
+        <v>560.682563648794</v>
       </c>
       <c r="Y12" t="n">
-        <v>398.4938728567101</v>
+        <v>507.5847681551912</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.666471045117</v>
+        <v>334.0548693135482</v>
       </c>
       <c r="C13" t="n">
-        <v>189.666471045117</v>
+        <v>165.1186863856413</v>
       </c>
       <c r="D13" t="n">
-        <v>189.666471045117</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E13" t="n">
-        <v>189.666471045117</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F13" t="n">
-        <v>189.666471045117</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G13" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H13" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I13" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J13" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K13" t="n">
-        <v>126.4133765287947</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L13" t="n">
-        <v>316.7083726551009</v>
+        <v>100.333517934938</v>
       </c>
       <c r="M13" t="n">
-        <v>527.7368878375336</v>
+        <v>285.9838492295944</v>
       </c>
       <c r="N13" t="n">
-        <v>739.1822330227046</v>
+        <v>471.6341805242508</v>
       </c>
       <c r="O13" t="n">
-        <v>918.4699372075543</v>
+        <v>634.3723839608009</v>
       </c>
       <c r="P13" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q13" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R13" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="S13" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="T13" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="U13" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="V13" t="n">
-        <v>820.0970659169042</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="W13" t="n">
-        <v>820.0970659169042</v>
+        <v>705.1231191602725</v>
       </c>
       <c r="X13" t="n">
-        <v>592.1075150188868</v>
+        <v>705.1231191602725</v>
       </c>
       <c r="Y13" t="n">
-        <v>371.3149358753568</v>
+        <v>515.703334143788</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>137.5684432757741</v>
+        <v>393.841617006275</v>
       </c>
       <c r="C14" t="n">
-        <v>137.5684432757741</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D14" t="n">
-        <v>137.5684432757741</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E14" t="n">
-        <v>137.5684432757741</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F14" t="n">
-        <v>137.5684432757741</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G14" t="n">
-        <v>137.5684432757741</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5684432757741</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I14" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J14" t="n">
-        <v>49.28269087917556</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K14" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L14" t="n">
-        <v>294.5174947515903</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>495.5981834030603</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N14" t="n">
-        <v>704.5463761991315</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O14" t="n">
-        <v>888.5149683358411</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P14" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q14" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R14" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S14" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T14" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="U14" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="V14" t="n">
-        <v>936.701412977308</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="W14" t="n">
-        <v>670.32375641013</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="X14" t="n">
-        <v>670.32375641013</v>
+        <v>393.841617006275</v>
       </c>
       <c r="Y14" t="n">
-        <v>403.9460998429521</v>
+        <v>393.841617006275</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>195.5501396812475</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="C15" t="n">
-        <v>21.09711040012049</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="D15" t="n">
-        <v>21.09711040012049</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="E15" t="n">
-        <v>21.09711040012049</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="F15" t="n">
-        <v>21.09711040012049</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G15" t="n">
-        <v>21.09711040012049</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H15" t="n">
-        <v>21.09711040012049</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I15" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J15" t="n">
-        <v>117.4455628004801</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K15" t="n">
-        <v>192.1295835699343</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L15" t="n">
-        <v>338.874007230231</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4746963267547</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N15" t="n">
-        <v>739.5286634293598</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O15" t="n">
-        <v>909.4672107560896</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P15" t="n">
-        <v>1026.524810789493</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q15" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R15" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S15" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T15" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U15" t="n">
-        <v>1054.855520006025</v>
+        <v>589.6477020051543</v>
       </c>
       <c r="V15" t="n">
-        <v>825.7631321944712</v>
+        <v>400.2279169886696</v>
       </c>
       <c r="W15" t="n">
-        <v>571.5257754662695</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="X15" t="n">
-        <v>571.5257754662695</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="Y15" t="n">
-        <v>363.7654767013155</v>
+        <v>210.8081319721848</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>190.0332933280274</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="C16" t="n">
-        <v>21.09711040012049</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="D16" t="n">
-        <v>21.09711040012049</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E16" t="n">
-        <v>21.09711040012049</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F16" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G16" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H16" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I16" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J16" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K16" t="n">
-        <v>126.4133765287947</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L16" t="n">
-        <v>316.7083726551009</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M16" t="n">
-        <v>527.7368878375335</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N16" t="n">
-        <v>739.1822330227045</v>
+        <v>650.9033495638718</v>
       </c>
       <c r="O16" t="n">
-        <v>918.4699372075542</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P16" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q16" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R16" t="n">
-        <v>926.0629918407075</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S16" t="n">
-        <v>926.0629918407075</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="T16" t="n">
-        <v>926.0629918407075</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="U16" t="n">
-        <v>926.0629918407075</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="V16" t="n">
-        <v>671.3785036348206</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="W16" t="n">
-        <v>418.0228442260448</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="X16" t="n">
-        <v>190.0332933280274</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.0332933280274</v>
+        <v>309.8050880536091</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>886.6694329606255</v>
+        <v>701.3565124662207</v>
       </c>
       <c r="C17" t="n">
-        <v>587.1189488523059</v>
+        <v>701.3565124662207</v>
       </c>
       <c r="D17" t="n">
-        <v>587.1189488523059</v>
+        <v>343.0908138594701</v>
       </c>
       <c r="E17" t="n">
-        <v>287.5684647439865</v>
+        <v>343.0908138594701</v>
       </c>
       <c r="F17" t="n">
-        <v>287.5684647439865</v>
+        <v>343.0908138594701</v>
       </c>
       <c r="G17" t="n">
-        <v>135.7699625450794</v>
+        <v>343.0908138594701</v>
       </c>
       <c r="H17" t="n">
-        <v>135.7699625450794</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="I17" t="n">
-        <v>23.7243983413789</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="J17" t="n">
-        <v>61.45946368660748</v>
+        <v>88.09109996346365</v>
       </c>
       <c r="K17" t="n">
-        <v>168.7530630784997</v>
+        <v>226.6867014338119</v>
       </c>
       <c r="L17" t="n">
-        <v>338.7620225311326</v>
+        <v>435.5285623771317</v>
       </c>
       <c r="M17" t="n">
-        <v>559.5991845858331</v>
+        <v>699.5748096392944</v>
       </c>
       <c r="N17" t="n">
-        <v>788.623531179556</v>
+        <v>972.5074096128444</v>
       </c>
       <c r="O17" t="n">
-        <v>991.5494660546915</v>
+        <v>1216.894663063073</v>
       </c>
       <c r="P17" t="n">
-        <v>1130.241055754234</v>
+        <v>1390.97252892495</v>
       </c>
       <c r="Q17" t="n">
-        <v>1186.219917068945</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="R17" t="n">
-        <v>1186.219917068945</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="S17" t="n">
-        <v>1186.219917068945</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="T17" t="n">
-        <v>1186.219917068945</v>
+        <v>1260.692560765571</v>
       </c>
       <c r="U17" t="n">
-        <v>1186.219917068945</v>
+        <v>1007.036812508924</v>
       </c>
       <c r="V17" t="n">
-        <v>1186.219917068945</v>
+        <v>1007.036812508924</v>
       </c>
       <c r="W17" t="n">
-        <v>1186.219917068945</v>
+        <v>701.3565124662207</v>
       </c>
       <c r="X17" t="n">
-        <v>886.6694329606255</v>
+        <v>701.3565124662207</v>
       </c>
       <c r="Y17" t="n">
-        <v>886.6694329606255</v>
+        <v>701.3565124662207</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>500.5622093308637</v>
+        <v>352.8579391411772</v>
       </c>
       <c r="C18" t="n">
-        <v>326.1091800497367</v>
+        <v>178.4049098600501</v>
       </c>
       <c r="D18" t="n">
-        <v>177.1747703884854</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="E18" t="n">
-        <v>177.1747703884854</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="F18" t="n">
-        <v>161.0596621867175</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="G18" t="n">
-        <v>23.7243983413789</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="H18" t="n">
-        <v>23.7243983413789</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="I18" t="n">
-        <v>23.7243983413789</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="J18" t="n">
-        <v>152.2114227799318</v>
+        <v>50.205809858883</v>
       </c>
       <c r="K18" t="n">
-        <v>236.616471129927</v>
+        <v>155.8715711133888</v>
       </c>
       <c r="L18" t="n">
-        <v>396.4320160215757</v>
+        <v>344.2747682400864</v>
       </c>
       <c r="M18" t="n">
-        <v>602.2860870701287</v>
+        <v>583.4892810544968</v>
       </c>
       <c r="N18" t="n">
-        <v>827.9971477571786</v>
+        <v>843.4437351338538</v>
       </c>
       <c r="O18" t="n">
-        <v>1012.258876852157</v>
+        <v>1059.03147919287</v>
       </c>
       <c r="P18" t="n">
-        <v>1140.812093008591</v>
+        <v>1212.726584108208</v>
       </c>
       <c r="Q18" t="n">
-        <v>1186.219917068945</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="R18" t="n">
-        <v>1171.697622770431</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="S18" t="n">
-        <v>1171.697622770431</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="T18" t="n">
-        <v>1171.697622770431</v>
+        <v>1277.504977960047</v>
       </c>
       <c r="U18" t="n">
-        <v>943.5658177681391</v>
+        <v>1049.382010882421</v>
       </c>
       <c r="V18" t="n">
-        <v>708.4137095363965</v>
+        <v>936.685075131732</v>
       </c>
       <c r="W18" t="n">
-        <v>708.4137095363965</v>
+        <v>936.685075131732</v>
       </c>
       <c r="X18" t="n">
-        <v>500.5622093308637</v>
+        <v>728.8335749261992</v>
       </c>
       <c r="Y18" t="n">
-        <v>500.5622093308637</v>
+        <v>521.0732761612452</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>361.1784472650713</v>
+        <v>632.7610326624242</v>
       </c>
       <c r="C19" t="n">
-        <v>192.2422643371644</v>
+        <v>463.8248497345173</v>
       </c>
       <c r="D19" t="n">
-        <v>192.2422643371644</v>
+        <v>463.8248497345173</v>
       </c>
       <c r="E19" t="n">
-        <v>192.2422643371644</v>
+        <v>315.9117561521242</v>
       </c>
       <c r="F19" t="n">
-        <v>192.2422643371644</v>
+        <v>169.0218086542139</v>
       </c>
       <c r="G19" t="n">
-        <v>23.7243983413789</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="H19" t="n">
-        <v>23.7243983413789</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="I19" t="n">
-        <v>23.7243983413789</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="J19" t="n">
-        <v>23.7243983413789</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="K19" t="n">
-        <v>134.9043498767889</v>
+        <v>153.4748297088715</v>
       </c>
       <c r="L19" t="n">
-        <v>332.7028445274893</v>
+        <v>367.6841128883382</v>
       </c>
       <c r="M19" t="n">
-        <v>551.6427468357707</v>
+        <v>603.9268907378643</v>
       </c>
       <c r="N19" t="n">
-        <v>770.8113640437574</v>
+        <v>839.9869597805533</v>
       </c>
       <c r="O19" t="n">
-        <v>957.2327599894778</v>
+        <v>1042.010345456325</v>
       </c>
       <c r="P19" t="n">
-        <v>1093.227787283485</v>
+        <v>1191.355570291405</v>
       </c>
       <c r="Q19" t="n">
-        <v>1103.948614848406</v>
+        <v>1211.31938263916</v>
       </c>
       <c r="R19" t="n">
-        <v>1103.948614848406</v>
+        <v>1211.31938263916</v>
       </c>
       <c r="S19" t="n">
-        <v>1103.948614848406</v>
+        <v>1211.31938263916</v>
       </c>
       <c r="T19" t="n">
-        <v>1103.948614848406</v>
+        <v>1211.31938263916</v>
       </c>
       <c r="U19" t="n">
-        <v>814.8012918265679</v>
+        <v>922.1782026993849</v>
       </c>
       <c r="V19" t="n">
-        <v>560.116803620681</v>
+        <v>922.1782026993849</v>
       </c>
       <c r="W19" t="n">
-        <v>361.1784472650713</v>
+        <v>632.7610326624242</v>
       </c>
       <c r="X19" t="n">
-        <v>361.1784472650713</v>
+        <v>632.7610326624242</v>
       </c>
       <c r="Y19" t="n">
-        <v>361.1784472650713</v>
+        <v>632.7610326624242</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>622.8253665580182</v>
+        <v>773.6750506735182</v>
       </c>
       <c r="C20" t="n">
-        <v>622.8253665580182</v>
+        <v>773.6750506735182</v>
       </c>
       <c r="D20" t="n">
-        <v>323.2748824496986</v>
+        <v>773.6750506735182</v>
       </c>
       <c r="E20" t="n">
-        <v>323.2748824496986</v>
+        <v>401.5727754361585</v>
       </c>
       <c r="F20" t="n">
-        <v>23.72439834137892</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="G20" t="n">
-        <v>23.72439834137892</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="H20" t="n">
-        <v>23.72439834137892</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="I20" t="n">
-        <v>23.72439834137892</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="J20" t="n">
-        <v>61.45946368660748</v>
+        <v>88.09109996346365</v>
       </c>
       <c r="K20" t="n">
-        <v>168.7530630784997</v>
+        <v>226.6867014338119</v>
       </c>
       <c r="L20" t="n">
-        <v>338.7620225311326</v>
+        <v>435.5285623771317</v>
       </c>
       <c r="M20" t="n">
-        <v>559.5991845858333</v>
+        <v>699.5748096392944</v>
       </c>
       <c r="N20" t="n">
-        <v>788.6235311795566</v>
+        <v>972.5074096128443</v>
       </c>
       <c r="O20" t="n">
-        <v>991.5494660546919</v>
+        <v>1216.894663063073</v>
       </c>
       <c r="P20" t="n">
-        <v>1130.241055754235</v>
+        <v>1390.97252892495</v>
       </c>
       <c r="Q20" t="n">
-        <v>1186.219917068946</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="R20" t="n">
-        <v>1186.219917068946</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="S20" t="n">
-        <v>1186.219917068946</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="T20" t="n">
-        <v>1186.219917068946</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="U20" t="n">
-        <v>1186.219917068946</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="V20" t="n">
-        <v>922.3758506663379</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="W20" t="n">
-        <v>622.8253665580182</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="X20" t="n">
-        <v>622.8253665580182</v>
+        <v>1145.777325910878</v>
       </c>
       <c r="Y20" t="n">
-        <v>622.8253665580182</v>
+        <v>773.6750506735182</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>292.8019105659104</v>
+        <v>645.9145924257939</v>
       </c>
       <c r="C21" t="n">
-        <v>172.6588080026302</v>
+        <v>471.4615631446669</v>
       </c>
       <c r="D21" t="n">
-        <v>23.72439834137892</v>
+        <v>471.4615631446669</v>
       </c>
       <c r="E21" t="n">
-        <v>23.72439834137892</v>
+        <v>312.2241081392114</v>
       </c>
       <c r="F21" t="n">
-        <v>23.72439834137892</v>
+        <v>165.6895501660964</v>
       </c>
       <c r="G21" t="n">
-        <v>23.72439834137892</v>
+        <v>165.6895501660964</v>
       </c>
       <c r="H21" t="n">
-        <v>23.72439834137892</v>
+        <v>67.09600867624857</v>
       </c>
       <c r="I21" t="n">
-        <v>23.72439834137892</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="J21" t="n">
-        <v>27.38129779292706</v>
+        <v>170.3968058573333</v>
       </c>
       <c r="K21" t="n">
-        <v>111.7863461429223</v>
+        <v>276.0625671118391</v>
       </c>
       <c r="L21" t="n">
-        <v>271.601891034571</v>
+        <v>464.4657642385367</v>
       </c>
       <c r="M21" t="n">
-        <v>477.455962083124</v>
+        <v>703.6802770529472</v>
       </c>
       <c r="N21" t="n">
-        <v>703.1670227701738</v>
+        <v>963.6347311323043</v>
       </c>
       <c r="O21" t="n">
-        <v>887.4287518651524</v>
+        <v>1179.222475191321</v>
       </c>
       <c r="P21" t="n">
-        <v>1015.981968021586</v>
+        <v>1332.917580106659</v>
       </c>
       <c r="Q21" t="n">
-        <v>1186.219917068946</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="R21" t="n">
-        <v>1171.697622770432</v>
+        <v>1473.525009939944</v>
       </c>
       <c r="S21" t="n">
-        <v>1171.697622770432</v>
+        <v>1328.524850233663</v>
       </c>
       <c r="T21" t="n">
-        <v>1171.697622770432</v>
+        <v>1132.504818253766</v>
       </c>
       <c r="U21" t="n">
-        <v>943.5658177681398</v>
+        <v>1132.504818253766</v>
       </c>
       <c r="V21" t="n">
-        <v>708.4137095363972</v>
+        <v>1068.367286174064</v>
       </c>
       <c r="W21" t="n">
-        <v>708.4137095363972</v>
+        <v>814.129929445862</v>
       </c>
       <c r="X21" t="n">
-        <v>500.5622093308643</v>
+        <v>814.129929445862</v>
       </c>
       <c r="Y21" t="n">
-        <v>292.8019105659104</v>
+        <v>814.129929445862</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>270.6996335837204</v>
+        <v>235.3012649237134</v>
       </c>
       <c r="C22" t="n">
-        <v>101.7634506558135</v>
+        <v>235.3012649237134</v>
       </c>
       <c r="D22" t="n">
-        <v>101.7634506558135</v>
+        <v>176.3604476967092</v>
       </c>
       <c r="E22" t="n">
-        <v>23.72439834137892</v>
+        <v>176.3604476967092</v>
       </c>
       <c r="F22" t="n">
-        <v>23.72439834137892</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="G22" t="n">
-        <v>23.72439834137892</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="H22" t="n">
-        <v>23.72439834137892</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="I22" t="n">
-        <v>23.72439834137892</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="J22" t="n">
-        <v>23.72439834137892</v>
+        <v>29.47050019879888</v>
       </c>
       <c r="K22" t="n">
-        <v>134.9043498767889</v>
+        <v>153.4748297088715</v>
       </c>
       <c r="L22" t="n">
-        <v>332.7028445274893</v>
+        <v>367.6841128883382</v>
       </c>
       <c r="M22" t="n">
-        <v>551.6427468357707</v>
+        <v>603.9268907378643</v>
       </c>
       <c r="N22" t="n">
-        <v>770.8113640437574</v>
+        <v>839.9869597805533</v>
       </c>
       <c r="O22" t="n">
-        <v>957.2327599894778</v>
+        <v>1042.010345456325</v>
       </c>
       <c r="P22" t="n">
-        <v>1093.227787283485</v>
+        <v>1191.355570291405</v>
       </c>
       <c r="Q22" t="n">
-        <v>1103.948614848406</v>
+        <v>1211.31938263916</v>
       </c>
       <c r="R22" t="n">
-        <v>1103.948614848406</v>
+        <v>1211.31938263916</v>
       </c>
       <c r="S22" t="n">
-        <v>1103.948614848406</v>
+        <v>1007.392474064578</v>
       </c>
       <c r="T22" t="n">
-        <v>1103.948614848406</v>
+        <v>1007.392474064578</v>
       </c>
       <c r="U22" t="n">
-        <v>814.8012918265679</v>
+        <v>1007.392474064578</v>
       </c>
       <c r="V22" t="n">
-        <v>560.116803620681</v>
+        <v>752.7079858586914</v>
       </c>
       <c r="W22" t="n">
-        <v>270.6996335837204</v>
+        <v>463.2908158217307</v>
       </c>
       <c r="X22" t="n">
-        <v>270.6996335837204</v>
+        <v>235.3012649237134</v>
       </c>
       <c r="Y22" t="n">
-        <v>270.6996335837204</v>
+        <v>235.3012649237134</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1575.249159503017</v>
+        <v>1581.43828121525</v>
       </c>
       <c r="C23" t="n">
-        <v>1206.286642562605</v>
+        <v>1581.43828121525</v>
       </c>
       <c r="D23" t="n">
-        <v>848.0209439558549</v>
+        <v>1223.1725826085</v>
       </c>
       <c r="E23" t="n">
-        <v>462.2326913576107</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F23" t="n">
-        <v>51.24678656800311</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I23" t="n">
         <v>51.24678656800311</v>
@@ -6019,22 +6019,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400155</v>
+        <v>2518.850884564755</v>
       </c>
       <c r="U23" t="n">
-        <v>2562.339328400155</v>
+        <v>2265.269823828935</v>
       </c>
       <c r="V23" t="n">
-        <v>2301.483573034211</v>
+        <v>1934.206936485364</v>
       </c>
       <c r="W23" t="n">
-        <v>1948.714917764097</v>
+        <v>1581.43828121525</v>
       </c>
       <c r="X23" t="n">
-        <v>1575.249159503017</v>
+        <v>1581.43828121525</v>
       </c>
       <c r="Y23" t="n">
-        <v>1575.249159503017</v>
+        <v>1581.43828121525</v>
       </c>
     </row>
     <row r="24">
@@ -6050,19 +6050,19 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E24" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G24" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I24" t="n">
         <v>51.24678656800311</v>
@@ -6071,22 +6071,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>684.9695361605189</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L24" t="n">
-        <v>1117.223096727985</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M24" t="n">
-        <v>1480.485115687205</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N24" t="n">
-        <v>1867.770244284151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O24" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P24" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400155</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>477.6642370458055</v>
+        <v>432.4910877623402</v>
       </c>
       <c r="C25" t="n">
-        <v>477.6642370458055</v>
+        <v>432.4910877623402</v>
       </c>
       <c r="D25" t="n">
-        <v>367.9721493962183</v>
+        <v>432.4910877623402</v>
       </c>
       <c r="E25" t="n">
-        <v>367.9721493962183</v>
+        <v>284.577994179947</v>
       </c>
       <c r="F25" t="n">
-        <v>367.9721493962183</v>
+        <v>137.6880466820367</v>
       </c>
       <c r="G25" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H25" t="n">
         <v>51.24678656800311</v>
@@ -6171,28 +6171,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S25" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T25" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U25" t="n">
-        <v>1021.765895288653</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V25" t="n">
-        <v>767.0814070827661</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W25" t="n">
-        <v>477.6642370458055</v>
+        <v>834.93213173611</v>
       </c>
       <c r="X25" t="n">
-        <v>477.6642370458055</v>
+        <v>834.93213173611</v>
       </c>
       <c r="Y25" t="n">
-        <v>477.6642370458055</v>
+        <v>614.1395525925799</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2057.32755894284</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C26" t="n">
-        <v>1688.365042002428</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D26" t="n">
         <v>1330.099343395678</v>
@@ -6229,19 +6229,19 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L26" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O26" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P26" t="n">
         <v>2360.886721764998</v>
@@ -6259,19 +6259,19 @@
         <v>2562.339328400156</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W26" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="X26" t="n">
-        <v>2443.927399006962</v>
+        <v>1935.292509403256</v>
       </c>
       <c r="Y26" t="n">
-        <v>2443.927399006962</v>
+        <v>1935.292509403256</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E27" t="n">
-        <v>448.679247148805</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756899</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I27" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J27" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K27" t="n">
-        <v>590.2049751143506</v>
+        <v>299.2648838844859</v>
       </c>
       <c r="L27" t="n">
-        <v>884.9085321458224</v>
+        <v>593.9684409159577</v>
       </c>
       <c r="M27" t="n">
-        <v>1248.170551105042</v>
+        <v>957.2304598751778</v>
       </c>
       <c r="N27" t="n">
-        <v>1635.455679701988</v>
+        <v>1344.515588472123</v>
       </c>
       <c r="O27" t="n">
-        <v>1967.526114878149</v>
+        <v>1676.586023648285</v>
       </c>
       <c r="P27" t="n">
-        <v>2214.708848710447</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q27" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R27" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="S27" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T27" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V27" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>518.2127024906389</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C28" t="n">
-        <v>349.276519562732</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D28" t="n">
-        <v>199.1598801503962</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E28" t="n">
-        <v>51.24678656800313</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F28" t="n">
-        <v>51.24678656800313</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G28" t="n">
         <v>51.24678656800313</v>
@@ -6411,25 +6411,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T28" t="n">
-        <v>1413.467639269233</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U28" t="n">
-        <v>1148.643297362426</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V28" t="n">
-        <v>1148.643297362426</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W28" t="n">
-        <v>1148.643297362426</v>
+        <v>1150.400202197398</v>
       </c>
       <c r="X28" t="n">
-        <v>920.6537464644088</v>
+        <v>1150.400202197398</v>
       </c>
       <c r="Y28" t="n">
-        <v>699.8611673208786</v>
+        <v>929.6076230538678</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1165.733530939539</v>
+        <v>1148.907795281707</v>
       </c>
       <c r="C29" t="n">
-        <v>1165.733530939539</v>
+        <v>779.9452783412949</v>
       </c>
       <c r="D29" t="n">
-        <v>807.4678323327887</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="E29" t="n">
         <v>421.6795797345444</v>
@@ -6460,55 +6460,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K29" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M29" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O29" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P29" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R29" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T29" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U29" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V29" t="n">
-        <v>1942.472702979473</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W29" t="n">
-        <v>1942.472702979473</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X29" t="n">
-        <v>1942.472702979473</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y29" t="n">
-        <v>1552.333371003661</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E30" t="n">
-        <v>448.679247148806</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F30" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182532</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812058019</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J30" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K30" t="n">
-        <v>614.5430248380237</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L30" t="n">
-        <v>909.2465818694955</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M30" t="n">
-        <v>1272.508600828716</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.793729425661</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P30" t="n">
-        <v>2239.04689843412</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q30" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R30" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S30" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T30" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V30" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>685.1760210978775</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C31" t="n">
-        <v>516.2398381699707</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D31" t="n">
-        <v>366.1231987576349</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E31" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F31" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020476</v>
@@ -6648,25 +6648,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>1439.817372234359</v>
+        <v>1490.937324465973</v>
       </c>
       <c r="T31" t="n">
-        <v>1439.817372234359</v>
+        <v>1267.958843660709</v>
       </c>
       <c r="U31" t="n">
-        <v>1439.817372234359</v>
+        <v>978.8405061645465</v>
       </c>
       <c r="V31" t="n">
-        <v>1439.817372234359</v>
+        <v>724.1560179586596</v>
       </c>
       <c r="W31" t="n">
-        <v>1150.400202197398</v>
+        <v>724.1560179586596</v>
       </c>
       <c r="X31" t="n">
-        <v>1087.617065071647</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="Y31" t="n">
-        <v>866.8244859281173</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1498.238896393306</v>
+        <v>1515.064632051139</v>
       </c>
       <c r="C32" t="n">
-        <v>1129.276379452894</v>
+        <v>1515.064632051139</v>
       </c>
       <c r="D32" t="n">
-        <v>771.0106808461439</v>
+        <v>1156.798933444388</v>
       </c>
       <c r="E32" t="n">
         <v>771.0106808461439</v>
@@ -6709,16 +6709,16 @@
         <v>795.7553530872917</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O32" t="n">
         <v>2055.228484740841</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q32" t="n">
         <v>2542.250581723851</v>
@@ -6730,22 +6730,22 @@
         <v>2437.640120926627</v>
       </c>
       <c r="T32" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.313418796631</v>
+        <v>2232.727359458831</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.25053145306</v>
+        <v>1901.66447211526</v>
       </c>
       <c r="W32" t="n">
-        <v>1498.238896393306</v>
+        <v>1901.66447211526</v>
       </c>
       <c r="X32" t="n">
-        <v>1498.238896393306</v>
+        <v>1901.66447211526</v>
       </c>
       <c r="Y32" t="n">
-        <v>1498.238896393306</v>
+        <v>1901.66447211526</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>51.24678656800313</v>
       </c>
       <c r="J33" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K33" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L33" t="n">
-        <v>909.2465818694955</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M33" t="n">
-        <v>1272.508600828716</v>
+        <v>1209.25321078144</v>
       </c>
       <c r="N33" t="n">
-        <v>1659.793729425661</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O33" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P33" t="n">
-        <v>2239.04689843412</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q33" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400156</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>833.0891146802707</v>
+        <v>155.629344792067</v>
       </c>
       <c r="C34" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D34" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E34" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F34" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G34" t="n">
         <v>51.24678656800313</v>
@@ -6888,22 +6888,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T34" t="n">
-        <v>1439.817372234359</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U34" t="n">
-        <v>1150.699034738196</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V34" t="n">
-        <v>1150.699034738196</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W34" t="n">
-        <v>861.2818647012357</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X34" t="n">
-        <v>861.2818647012357</v>
+        <v>155.629344792067</v>
       </c>
       <c r="Y34" t="n">
-        <v>833.0891146802707</v>
+        <v>155.629344792067</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1181.996585635751</v>
+        <v>909.6965460670945</v>
       </c>
       <c r="C35" t="n">
-        <v>1181.996585635751</v>
+        <v>909.6965460670945</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.996585635751</v>
+        <v>909.6965460670945</v>
       </c>
       <c r="E35" t="n">
-        <v>1181.996585635751</v>
+        <v>909.6965460670945</v>
       </c>
       <c r="F35" t="n">
-        <v>771.0106808461439</v>
+        <v>498.7106412774869</v>
       </c>
       <c r="G35" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I35" t="n">
         <v>51.24678656800313</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S35" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T35" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U35" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="V35" t="n">
-        <v>1908.230999166945</v>
+        <v>2022.53079966241</v>
       </c>
       <c r="W35" t="n">
-        <v>1555.462343896831</v>
+        <v>1669.762144392296</v>
       </c>
       <c r="X35" t="n">
-        <v>1181.996585635751</v>
+        <v>1296.296386131216</v>
       </c>
       <c r="Y35" t="n">
-        <v>1181.996585635751</v>
+        <v>1296.296386131216</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148806</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F36" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182532</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812058019</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I36" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0008189145209</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K36" t="n">
-        <v>614.5430248380237</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L36" t="n">
-        <v>909.2465818694955</v>
+        <v>1117.223096727986</v>
       </c>
       <c r="M36" t="n">
-        <v>1272.508600828716</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.793729425661</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O36" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P36" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q36" t="n">
         <v>2562.339328400156</v>
@@ -7043,25 +7043,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S36" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T36" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>198.1367340659135</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C37" t="n">
-        <v>198.1367340659135</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D37" t="n">
-        <v>198.1367340659135</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E37" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F37" t="n">
-        <v>51.24678656800313</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G37" t="n">
         <v>51.24678656800313</v>
@@ -7119,28 +7119,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>1114.255484944676</v>
+        <v>1524.947328691001</v>
       </c>
       <c r="U37" t="n">
-        <v>825.137147448514</v>
+        <v>1524.947328691001</v>
       </c>
       <c r="V37" t="n">
-        <v>570.4526592426272</v>
+        <v>1524.947328691001</v>
       </c>
       <c r="W37" t="n">
-        <v>281.0354892056666</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X37" t="n">
-        <v>281.0354892056666</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.1367340659135</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1688.365042002428</v>
+        <v>1452.155307492517</v>
       </c>
       <c r="C38" t="n">
-        <v>1688.365042002428</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D38" t="n">
-        <v>1330.099343395678</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E38" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F38" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G38" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H38" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
         <v>187.5281822362819</v>
@@ -7180,10 +7180,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L38" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N38" t="n">
         <v>1656.671415230817</v>
@@ -7204,22 +7204,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U38" t="n">
-        <v>2184.059060190805</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V38" t="n">
-        <v>1852.996172847234</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W38" t="n">
-        <v>1688.365042002428</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X38" t="n">
-        <v>1688.365042002428</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y38" t="n">
-        <v>1688.365042002428</v>
+        <v>1838.755147556639</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G39" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I39" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K39" t="n">
-        <v>614.5430248380223</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L39" t="n">
-        <v>909.2465818694941</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M39" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.793729425659</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O39" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400155</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>745.7732565618936</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C40" t="n">
-        <v>576.8370736339867</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D40" t="n">
         <v>514.036292340028</v>
@@ -7323,16 +7323,16 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020476</v>
@@ -7359,25 +7359,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T40" t="n">
-        <v>1216.838891429094</v>
+        <v>1524.947328691001</v>
       </c>
       <c r="U40" t="n">
-        <v>1216.838891429094</v>
+        <v>1524.947328691001</v>
       </c>
       <c r="V40" t="n">
-        <v>1216.838891429094</v>
+        <v>1524.947328691001</v>
       </c>
       <c r="W40" t="n">
-        <v>927.4217213921333</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X40" t="n">
-        <v>927.4217213921333</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y40" t="n">
-        <v>927.4217213921333</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>844.848651279277</v>
+        <v>1232.405431550705</v>
       </c>
       <c r="C41" t="n">
-        <v>475.8861343388652</v>
+        <v>863.4429146102937</v>
       </c>
       <c r="D41" t="n">
-        <v>117.6204357321147</v>
+        <v>505.1772160035432</v>
       </c>
       <c r="E41" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F41" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G41" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H41" t="n">
         <v>117.6204357321147</v>
@@ -7453,10 +7453,10 @@
         <v>1622.544763526517</v>
       </c>
       <c r="X41" t="n">
-        <v>1249.079005265437</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="Y41" t="n">
-        <v>1231.448491343399</v>
+        <v>1232.405431550705</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E42" t="n">
-        <v>448.679247148805</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756899</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G42" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I42" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145209</v>
       </c>
       <c r="K42" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380237</v>
       </c>
       <c r="L42" t="n">
-        <v>932.4978103101001</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M42" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828716</v>
       </c>
       <c r="N42" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O42" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P42" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R42" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S42" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T42" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V42" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y42" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>685.1760210978775</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C43" t="n">
-        <v>516.2398381699707</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D43" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E43" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F43" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G43" t="n">
         <v>51.24678656800313</v>
@@ -7593,28 +7593,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T43" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U43" t="n">
-        <v>1021.765895288653</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V43" t="n">
-        <v>767.0814070827661</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W43" t="n">
-        <v>767.0814070827661</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X43" t="n">
-        <v>767.0814070827661</v>
+        <v>155.629344792067</v>
       </c>
       <c r="Y43" t="n">
-        <v>767.0814070827661</v>
+        <v>51.24678656800313</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1089.391082610343</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="C44" t="n">
-        <v>877.9374416333219</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="D44" t="n">
-        <v>877.9374416333219</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="E44" t="n">
-        <v>877.9374416333219</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F44" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G44" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H44" t="n">
         <v>51.2467865680031</v>
@@ -7654,10 +7654,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N44" t="n">
         <v>1656.671415230817</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T44" t="n">
-        <v>2437.640120926626</v>
+        <v>2472.028374432541</v>
       </c>
       <c r="U44" t="n">
-        <v>2184.059060190805</v>
+        <v>2218.44731369672</v>
       </c>
       <c r="V44" t="n">
-        <v>1852.996172847234</v>
+        <v>1887.38442635315</v>
       </c>
       <c r="W44" t="n">
-        <v>1852.996172847234</v>
+        <v>1534.615771083035</v>
       </c>
       <c r="X44" t="n">
-        <v>1479.530414586155</v>
+        <v>1161.150012821956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1089.391082610343</v>
+        <v>771.0106808461439</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L45" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M45" t="n">
-        <v>1209.253210781439</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.432194560477</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O45" t="n">
-        <v>2175.502629736639</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q45" t="n">
         <v>2538.001278676482</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>466.9249370526154</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C46" t="n">
-        <v>297.9887541247085</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D46" t="n">
-        <v>147.8721147123728</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E46" t="n">
-        <v>147.8721147123728</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F46" t="n">
         <v>51.2467865680031</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T46" t="n">
-        <v>1413.467639269233</v>
+        <v>1356.662031458481</v>
       </c>
       <c r="U46" t="n">
-        <v>1413.467639269233</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="V46" t="n">
-        <v>1158.783151063346</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="W46" t="n">
-        <v>869.3659810263853</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="X46" t="n">
-        <v>869.3659810263853</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y46" t="n">
-        <v>648.5734018828551</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
   </sheetData>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K5" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L5" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
         <v>4.586202945486093</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P5" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,7 +8297,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,16 +8376,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M7" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
         <v>56.93882853040725</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>74.31475871928936</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K8" t="n">
-        <v>53.28984570098882</v>
+        <v>57.8521323086317</v>
       </c>
       <c r="L8" t="n">
         <v>28.8362588753597</v>
@@ -8616,19 +8616,19 @@
         <v>65.23786115827478</v>
       </c>
       <c r="L10" t="n">
-        <v>51.81392088397056</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M10" t="n">
-        <v>46.72338342663512</v>
+        <v>51.10133522184798</v>
       </c>
       <c r="N10" t="n">
         <v>42.23779755379654</v>
       </c>
       <c r="O10" t="n">
-        <v>55.31770395088348</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P10" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,16 +8850,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528923</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8868,7 +8868,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>99.37288961069065</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9093,16 +9093,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>98.8606518859406</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>53.38057711014613</v>
+        <v>37.76676269417194</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>4.685988877327681</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.487474645988989</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>53.38057711014613</v>
+        <v>37.76676269417194</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.5785099863984</v>
+        <v>88.67224127276748</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.9393975111056</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>193.3273467878348</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>20.93778120154988</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>168.7434581780652</v>
+        <v>0.9556134883075913</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>193.3273467878359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>162.0073097921333</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>193.3273467878359</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>255.5240487471578</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>54.95314511566615</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.9393975111065</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>20.93778120154988</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>30.36925650589438</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>54.95314511566615</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>186.5911984019036</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>20.93778120154988</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>255.5240487471569</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>168.7434581780635</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R7" t="n">
         <v>151.3616578248528</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>402.3137591340686</v>
       </c>
       <c r="G8" t="n">
         <v>413.9914553764875</v>
@@ -23074,7 +23074,7 @@
         <v>174.5769412441708</v>
       </c>
       <c r="T8" t="n">
-        <v>217.3557120022016</v>
+        <v>213.3372499581897</v>
       </c>
       <c r="U8" t="n">
         <v>251.2407503367447</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>365.7126386344572</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>381.6756520484107</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,22 +23102,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>168.6900369443039</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>153.0827938477581</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>140.506925785741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6234573220913</v>
+        <v>132.0796327584602</v>
       </c>
       <c r="H9" t="n">
-        <v>105.4594865644317</v>
+        <v>100.8971999567888</v>
       </c>
       <c r="I9" t="n">
         <v>65.24074378433592</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.59722706556381</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S9" t="n">
-        <v>154.0890131332548</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T9" t="n">
         <v>197.336797223147</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>32.34636041377521</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R10" t="n">
-        <v>150.8459592031442</v>
+        <v>146.8274971591324</v>
       </c>
       <c r="S10" t="n">
-        <v>213.7659454939867</v>
+        <v>209.2036588863439</v>
       </c>
       <c r="T10" t="n">
-        <v>220.8701016233495</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U10" t="n">
         <v>286.286945936951</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>247.5753567161851</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>281.9607117289481</v>
       </c>
       <c r="X10" t="n">
-        <v>221.1473687813943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.5661913080829</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>162.0311481131613</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.83417464571</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H11" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S11" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.2897156032232</v>
+        <v>25.91829388988714</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038153</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.5240586545474</v>
+        <v>379.8412146700125</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>80.17763613609941</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
-        <v>194.8409875848768</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>153.1158782386375</v>
       </c>
     </row>
     <row r="13">
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H13" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I13" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07219909888209</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>127.5046028836639</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S13" t="n">
-        <v>204.7191642435938</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T13" t="n">
-        <v>223.2143458795659</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V13" t="n">
-        <v>19.72677377559882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>245.3366433004809</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>31.05906618577515</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G14" t="n">
-        <v>412.83417464571</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H14" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S14" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V14" t="n">
-        <v>210.7796925117055</v>
+        <v>321.3555344840935</v>
       </c>
       <c r="W14" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H15" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18.15252495527768</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S15" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
-        <v>194.8409875848768</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8544875035546</v>
+        <v>67.01366821656703</v>
       </c>
       <c r="V15" t="n">
-        <v>5.999123215987396</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H16" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I16" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07219909888209</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>204.7191642435938</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T16" t="n">
-        <v>223.2143458795659</v>
+        <v>111.5164244354025</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>35.70089552190291</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>68.71791250377129</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>85.37539080502552</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>262.4400069666136</v>
+        <v>412.4719608431758</v>
       </c>
       <c r="H17" t="n">
-        <v>313.0297094238332</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>101.3423719246969</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>150.1778823808314</v>
+        <v>144.5137461739739</v>
       </c>
       <c r="T17" t="n">
-        <v>211.7922105299372</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1390758381082</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>46.61747167513647</v>
       </c>
       <c r="X17" t="n">
-        <v>73.17612141123277</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>129.1152552736337</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8289181165109</v>
       </c>
       <c r="H18" t="n">
-        <v>98.89203934251186</v>
+        <v>97.6076060749493</v>
       </c>
       <c r="I18" t="n">
-        <v>41.82818216214209</v>
+        <v>37.2492533926752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>6.119833691761372</v>
       </c>
       <c r="S18" t="n">
-        <v>146.0204464326186</v>
+        <v>143.5501581092183</v>
       </c>
       <c r="T18" t="n">
-        <v>194.5958871427908</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>121.230620756243</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>28.5653950255244</v>
       </c>
       <c r="H19" t="n">
-        <v>151.9289034335009</v>
+        <v>150.9375942810041</v>
       </c>
       <c r="I19" t="n">
-        <v>120.6174748284963</v>
+        <v>117.2644577769018</v>
       </c>
       <c r="J19" t="n">
-        <v>11.46793411665097</v>
+        <v>3.585100498074667</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>125.2123700686819</v>
+        <v>120.1990622279363</v>
       </c>
       <c r="S19" t="n">
-        <v>203.830727060755</v>
+        <v>201.8876394888364</v>
       </c>
       <c r="T19" t="n">
-        <v>222.996523513403</v>
+        <v>222.5201274994219</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>89.57402554453742</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>58.12806235344652</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>13.54911758727582</v>
       </c>
       <c r="F20" t="n">
-        <v>110.321066474475</v>
+        <v>38.49479325672547</v>
       </c>
       <c r="G20" t="n">
-        <v>412.7205241435316</v>
+        <v>412.4719608431758</v>
       </c>
       <c r="H20" t="n">
-        <v>313.0297094238332</v>
+        <v>310.4841105240645</v>
       </c>
       <c r="I20" t="n">
-        <v>110.9251085616634</v>
+        <v>101.3423719246969</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>150.1778823808314</v>
+        <v>144.5137461739739</v>
       </c>
       <c r="T20" t="n">
-        <v>211.7922105299372</v>
+        <v>210.7041246826298</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1390758381082</v>
+        <v>251.1191907740798</v>
       </c>
       <c r="V20" t="n">
-        <v>66.54663273155319</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>52.68598945017658</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>45.26089348969367</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>17.85668617106762</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>53.7668274506683</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9619112068852</v>
+        <v>135.8289181165109</v>
       </c>
       <c r="H21" t="n">
-        <v>98.89203934251186</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>41.82818216214209</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>6.119833691761372</v>
       </c>
       <c r="S21" t="n">
-        <v>146.0204464326186</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.5958871427908</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8417374068498</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>169.3044303905201</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>90.26406396347824</v>
       </c>
       <c r="E22" t="n">
-        <v>69.17530085527893</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8326873358276</v>
+        <v>166.7211903963852</v>
       </c>
       <c r="H22" t="n">
-        <v>151.9289034335009</v>
+        <v>150.9375942810041</v>
       </c>
       <c r="I22" t="n">
-        <v>120.6174748284963</v>
+        <v>117.2644577769018</v>
       </c>
       <c r="J22" t="n">
-        <v>11.46793411665097</v>
+        <v>3.585100498074667</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>125.2123700686819</v>
+        <v>120.1990622279363</v>
       </c>
       <c r="S22" t="n">
-        <v>203.830727060755</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.996523513403</v>
+        <v>222.5201274994219</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2497681403778</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>163.6046255831876</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>69.50506065785004</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>40.02030624512106</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>80.72975253191095</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
         <v>104.7965952039006</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
         <v>194.6624603617375</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>148.8654990869855</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>252.5032905792065</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>84.27865689207616</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>147.2515091551288</v>
@@ -24651,22 +24651,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>24.05105563346177</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.5855015712546</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>295.239949811148</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551288</v>
@@ -24888,25 +24888,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>50.6087527092985</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>163.5543496345442</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>48.18161627534408</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>204.6894500082562</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>63.90808845680461</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551288</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.6738308313394</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>335.2869518454409</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>10.29541290828394</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551288</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>110.3648925275505</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.5148857637392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>163.5256698052801</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>186.2561491810547</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>86.44269953719322</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>110.3648925275505</v>
       </c>
       <c r="U40" t="n">
         <v>286.2271541212006</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>299.267710165953</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,7 +25645,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>368.7837298732355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.74564805689765</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
         <v>147.2515091551288</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>115.2459207102716</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>155.9337872037568</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>65.70991267247047</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>117.2503405522956</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>49.76197316000525</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
@@ -26073,19 +26073,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>138.4249086290933</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>553037.2351905555</v>
+        <v>487946.8788230859</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>553037.2351905556</v>
+        <v>487946.878823086</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>577095.3066504932</v>
+        <v>629712.3521334026</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>577095.3066504933</v>
+        <v>629712.3521334026</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>827682.7348215895</v>
+        <v>827682.7348215898</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>827682.7348215898</v>
+        <v>827682.7348215897</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>827682.7348215898</v>
+        <v>827682.7348215897</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>827682.7348215897</v>
+        <v>827682.7348215895</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>827682.7348215894</v>
+        <v>827682.7348215895</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>827682.7348215895</v>
+        <v>827682.7348215897</v>
       </c>
     </row>
     <row r="16">
@@ -26322,34 +26322,34 @@
         <v>102902.7897129504</v>
       </c>
       <c r="E2" t="n">
-        <v>173371.5940175454</v>
+        <v>153375.3739746991</v>
       </c>
       <c r="F2" t="n">
-        <v>173371.5940175455</v>
+        <v>153375.3739746993</v>
       </c>
       <c r="G2" t="n">
-        <v>180979.7917661233</v>
+        <v>197619.5663900581</v>
       </c>
       <c r="H2" t="n">
-        <v>180979.7917661234</v>
+        <v>197619.5663900581</v>
       </c>
       <c r="I2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="J2" t="n">
+        <v>260075.8859201623</v>
+      </c>
+      <c r="K2" t="n">
         <v>260075.8859201622</v>
-      </c>
-      <c r="K2" t="n">
-        <v>260075.8859201623</v>
       </c>
       <c r="L2" t="n">
         <v>260075.8859201623</v>
       </c>
       <c r="M2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="N2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="O2" t="n">
         <v>260075.8859201623</v>
@@ -26374,19 +26374,19 @@
         <v>6864.158965221272</v>
       </c>
       <c r="E3" t="n">
-        <v>308655.4636758681</v>
+        <v>233216.0712895336</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>30981.24745406274</v>
+        <v>170613.4765882709</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>311091.2408230301</v>
+        <v>245448.5646975377</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1154.673679814957</v>
+        <v>1154.673679815015</v>
       </c>
       <c r="M3" t="n">
-        <v>64581.6136801243</v>
+        <v>45595.18635242448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7903.243379397304</v>
+        <v>43523.09671460239</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>16951.9910219705</v>
       </c>
       <c r="C4" t="n">
-        <v>16951.99102197049</v>
+        <v>16951.9910219705</v>
       </c>
       <c r="D4" t="n">
         <v>16598.64506302712</v>
       </c>
       <c r="E4" t="n">
-        <v>12754.4749088174</v>
+        <v>9939.208351946796</v>
       </c>
       <c r="F4" t="n">
-        <v>12754.47490881741</v>
+        <v>9939.2083519468</v>
       </c>
       <c r="G4" t="n">
-        <v>13118.35756022432</v>
+        <v>13914.19982261859</v>
       </c>
       <c r="H4" t="n">
-        <v>13118.35756022433</v>
+        <v>13914.19982261858</v>
       </c>
       <c r="I4" t="n">
         <v>17379.72927547096</v>
       </c>
       <c r="J4" t="n">
-        <v>17379.72927547098</v>
+        <v>17379.72927547097</v>
       </c>
       <c r="K4" t="n">
-        <v>17379.72927547097</v>
+        <v>17379.72927547096</v>
       </c>
       <c r="L4" t="n">
         <v>17379.72927547097</v>
@@ -26456,10 +26456,10 @@
         <v>17379.72927547096</v>
       </c>
       <c r="O4" t="n">
+        <v>17379.72927547098</v>
+      </c>
+      <c r="P4" t="n">
         <v>17379.72927547095</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17379.72927547096</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>41015.74224309583</v>
       </c>
       <c r="E5" t="n">
-        <v>29420.2032042662</v>
+        <v>23358.20041161354</v>
       </c>
       <c r="F5" t="n">
-        <v>29420.2032042662</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="G5" t="n">
-        <v>32033.24030031064</v>
+        <v>37748.17434895417</v>
       </c>
       <c r="H5" t="n">
-        <v>32033.24030031065</v>
+        <v>37748.17434895416</v>
       </c>
       <c r="I5" t="n">
         <v>59310.17243984472</v>
@@ -26496,7 +26496,7 @@
         <v>59310.17243984473</v>
       </c>
       <c r="K5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
         <v>59310.17243984473</v>
@@ -26505,7 +26505,7 @@
         <v>59310.17243984473</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="O5" t="n">
         <v>59310.17243984473</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278663.2924786649</v>
+        <v>-265569.7691154047</v>
       </c>
       <c r="C6" t="n">
-        <v>29520.59134188946</v>
+        <v>42614.11470514962</v>
       </c>
       <c r="D6" t="n">
-        <v>23951.30447223143</v>
+        <v>36976.94954466865</v>
       </c>
       <c r="E6" t="n">
-        <v>-187786.2629581577</v>
+        <v>-114288.5024208514</v>
       </c>
       <c r="F6" t="n">
-        <v>120869.2007177105</v>
+        <v>118927.5688686821</v>
       </c>
       <c r="G6" t="n">
-        <v>94966.77230880811</v>
+        <v>-25546.42075685763</v>
       </c>
       <c r="H6" t="n">
-        <v>125948.0197628709</v>
+        <v>145067.0558314133</v>
       </c>
       <c r="I6" t="n">
-        <v>-132932.7193400752</v>
+        <v>-62585.32676488039</v>
       </c>
       <c r="J6" t="n">
-        <v>178158.5214829548</v>
+        <v>182863.2379326574</v>
       </c>
       <c r="K6" t="n">
-        <v>178158.5214829549</v>
+        <v>182863.2379326574</v>
       </c>
       <c r="L6" t="n">
-        <v>177003.84780314</v>
+        <v>181708.5642528424</v>
       </c>
       <c r="M6" t="n">
-        <v>113576.9078028306</v>
+        <v>137268.0515802328</v>
       </c>
       <c r="N6" t="n">
-        <v>178158.521482955</v>
+        <v>182863.2379326574</v>
       </c>
       <c r="O6" t="n">
-        <v>170255.2781035576</v>
+        <v>139340.1412180551</v>
       </c>
       <c r="P6" t="n">
-        <v>178158.5214829549</v>
+        <v>182863.2379326574</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>326.1814319885848</v>
       </c>
       <c r="E3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="F3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="G3" t="n">
-        <v>642.3255761863612</v>
+        <v>704.1556971498632</v>
       </c>
       <c r="H3" t="n">
-        <v>642.3255761863612</v>
+        <v>704.1556971498632</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175393</v>
@@ -26798,16 +26798,16 @@
         <v>4.562286607642875</v>
       </c>
       <c r="E4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G4" t="n">
-        <v>296.5549792672363</v>
+        <v>368.381252484986</v>
       </c>
       <c r="H4" t="n">
-        <v>296.5549792672364</v>
+        <v>368.381252484986</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000389</v>
@@ -26816,7 +26816,7 @@
         <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="L4" t="n">
         <v>640.5848321000391</v>
@@ -26825,7 +26825,7 @@
         <v>640.5848321000391</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
         <v>640.5848321000391</v>
@@ -26968,19 +26968,19 @@
         <v>6.360213490542151</v>
       </c>
       <c r="E3" t="n">
-        <v>287.8735817808935</v>
+        <v>222.2885089243194</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>28.27056241688297</v>
+        <v>155.6857562369586</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>291.7393159311781</v>
+        <v>229.9091949676762</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>4.562286607642875</v>
       </c>
       <c r="E4" t="n">
-        <v>259.1515933938633</v>
+        <v>182.9633005586768</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>32.84109926573013</v>
+        <v>180.8556653186662</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>344.0298528328024</v>
+        <v>272.2035796150529</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.562286607642932</v>
+        <v>4.562286607643159</v>
       </c>
       <c r="M4" t="n">
-        <v>259.1515933938633</v>
+        <v>182.9633005586768</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>32.84109926573047</v>
+        <v>180.8556653186664</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>4.562286607642875</v>
       </c>
       <c r="M4" t="n">
-        <v>259.1515933938633</v>
+        <v>182.9633005586768</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>32.84109926573013</v>
+        <v>180.8556653186662</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
         <v>109.1233211798925</v>
@@ -31293,7 +31293,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M5" t="n">
         <v>225.7600302817866</v>
@@ -31357,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H6" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I6" t="n">
         <v>23.68487325669467</v>
@@ -31384,13 +31384,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R6" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S6" t="n">
         <v>12.77776283338877</v>
@@ -31399,7 +31399,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
         <v>5.127625437558785</v>
@@ -31448,16 +31448,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K7" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L7" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M7" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N7" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
         <v>81.51770992143554</v>
@@ -31466,7 +31466,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R7" t="n">
         <v>25.93173355231669</v>
@@ -31609,7 +31609,7 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L9" t="n">
-        <v>142.932331575087</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M9" t="n">
         <v>146.6963205296612</v>
@@ -31618,7 +31618,7 @@
         <v>135.9039986909762</v>
       </c>
       <c r="O9" t="n">
-        <v>147.1585310520873</v>
+        <v>146.9741962396573</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H11" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I11" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J11" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K11" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L11" t="n">
-        <v>389.5577350167918</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M11" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N11" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O11" t="n">
-        <v>415.9250721658379</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P11" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q11" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R11" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S11" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T11" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I12" t="n">
-        <v>45.47482884990948</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J12" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M12" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N12" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O12" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P12" t="n">
-        <v>252.2144074480712</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q12" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R12" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S12" t="n">
-        <v>24.53323569163905</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T12" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H13" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I13" t="n">
-        <v>33.29990140244975</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J13" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K13" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L13" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M13" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N13" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O13" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P13" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R13" t="n">
-        <v>49.78878849350555</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S13" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T13" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H14" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I14" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J14" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K14" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L14" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M14" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N14" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O14" t="n">
-        <v>415.9250721658379</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P14" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q14" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R14" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S14" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T14" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H15" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I15" t="n">
-        <v>45.47482884990948</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J15" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K15" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M15" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N15" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O15" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P15" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q15" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R15" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S15" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T15" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H16" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I16" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J16" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K16" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L16" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M16" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N16" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O16" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P16" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R16" t="n">
-        <v>49.78878849350555</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S16" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T16" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.58221337160346</v>
+        <v>2.830776671959247</v>
       </c>
       <c r="H17" t="n">
-        <v>26.44509269193394</v>
+        <v>28.99069159170264</v>
       </c>
       <c r="I17" t="n">
-        <v>99.55078100874249</v>
+        <v>109.133517645709</v>
       </c>
       <c r="J17" t="n">
-        <v>219.1621321481294</v>
+        <v>240.2586315617013</v>
       </c>
       <c r="K17" t="n">
-        <v>328.4672241681039</v>
+        <v>360.0854080857363</v>
       </c>
       <c r="L17" t="n">
-        <v>407.4926366393134</v>
+        <v>446.7177896602092</v>
       </c>
       <c r="M17" t="n">
-        <v>453.4140736865664</v>
+        <v>497.0596143001645</v>
       </c>
       <c r="N17" t="n">
-        <v>460.7507874286348</v>
+        <v>505.1025585193687</v>
       </c>
       <c r="O17" t="n">
-        <v>435.0739032147529</v>
+        <v>476.9540229875739</v>
       </c>
       <c r="P17" t="n">
-        <v>371.3255106032923</v>
+        <v>407.0692238985799</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.8499942327434</v>
+        <v>305.6920343340393</v>
       </c>
       <c r="R17" t="n">
-        <v>162.204960703986</v>
+        <v>177.8187751199602</v>
       </c>
       <c r="S17" t="n">
-        <v>58.84218720541391</v>
+        <v>64.5063234122714</v>
       </c>
       <c r="T17" t="n">
-        <v>11.30363903419415</v>
+        <v>12.39172488150161</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2065770697282768</v>
+        <v>0.2264621337567397</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.381605956325381</v>
+        <v>1.514599046699706</v>
       </c>
       <c r="H18" t="n">
-        <v>13.3434048939846</v>
+        <v>14.62783816154716</v>
       </c>
       <c r="I18" t="n">
-        <v>47.56845068927299</v>
+        <v>52.14737945873988</v>
       </c>
       <c r="J18" t="n">
-        <v>130.5314644965133</v>
+        <v>143.0963950217472</v>
       </c>
       <c r="K18" t="n">
-        <v>223.0990635703138</v>
+        <v>244.5745311506275</v>
       </c>
       <c r="L18" t="n">
-        <v>299.9842231047718</v>
+        <v>328.8606395038111</v>
       </c>
       <c r="M18" t="n">
-        <v>350.0674390215668</v>
+        <v>383.7648549466754</v>
       </c>
       <c r="N18" t="n">
-        <v>359.3326824742928</v>
+        <v>393.9219687291485</v>
       </c>
       <c r="O18" t="n">
-        <v>328.7192031262409</v>
+        <v>360.361642483855</v>
       </c>
       <c r="P18" t="n">
-        <v>263.8261409056773</v>
+        <v>289.2219881368938</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.3607883898855</v>
+        <v>193.3372397155624</v>
       </c>
       <c r="R18" t="n">
-        <v>85.78076279711446</v>
+        <v>94.03800046088176</v>
       </c>
       <c r="S18" t="n">
-        <v>25.66272467121923</v>
+        <v>28.13301299461952</v>
       </c>
       <c r="T18" t="n">
-        <v>5.568841552030809</v>
+        <v>6.104897034723812</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0908951287056172</v>
+        <v>0.09964467412498068</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.158292022631143</v>
+        <v>1.269788962073524</v>
       </c>
       <c r="H19" t="n">
-        <v>10.29826907393872</v>
+        <v>11.28957822643552</v>
       </c>
       <c r="I19" t="n">
-        <v>34.83300009876202</v>
+        <v>38.18601715035652</v>
       </c>
       <c r="J19" t="n">
-        <v>81.89124600002181</v>
+        <v>89.77407961859811</v>
       </c>
       <c r="K19" t="n">
-        <v>134.5724731747819</v>
+        <v>147.5263903209057</v>
       </c>
       <c r="L19" t="n">
-        <v>172.2064339828156</v>
+        <v>188.7829880522764</v>
       </c>
       <c r="M19" t="n">
-        <v>181.5675395111709</v>
+        <v>199.0451915730342</v>
       </c>
       <c r="N19" t="n">
-        <v>177.2502692450004</v>
+        <v>194.3123418053058</v>
       </c>
       <c r="O19" t="n">
-        <v>163.7193124351729</v>
+        <v>179.4788980210832</v>
       </c>
       <c r="P19" t="n">
-        <v>140.0901551734975</v>
+        <v>153.5752031947832</v>
       </c>
       <c r="Q19" t="n">
-        <v>96.99116200414053</v>
+        <v>106.3275102696293</v>
       </c>
       <c r="R19" t="n">
-        <v>52.08102130848756</v>
+        <v>57.09432914923315</v>
       </c>
       <c r="S19" t="n">
-        <v>20.18587097621728</v>
+        <v>22.12895854813585</v>
       </c>
       <c r="T19" t="n">
-        <v>4.949065914878519</v>
+        <v>5.425461928859599</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0631795648707897</v>
+        <v>0.06926121611310136</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.58221337160346</v>
+        <v>2.830776671959247</v>
       </c>
       <c r="H20" t="n">
-        <v>26.44509269193394</v>
+        <v>28.99069159170264</v>
       </c>
       <c r="I20" t="n">
-        <v>99.55078100874249</v>
+        <v>109.133517645709</v>
       </c>
       <c r="J20" t="n">
-        <v>219.1621321481294</v>
+        <v>240.2586315617013</v>
       </c>
       <c r="K20" t="n">
-        <v>328.4672241681039</v>
+        <v>360.0854080857363</v>
       </c>
       <c r="L20" t="n">
-        <v>407.4926366393134</v>
+        <v>446.7177896602092</v>
       </c>
       <c r="M20" t="n">
-        <v>453.4140736865664</v>
+        <v>497.0596143001645</v>
       </c>
       <c r="N20" t="n">
-        <v>460.7507874286348</v>
+        <v>505.1025585193687</v>
       </c>
       <c r="O20" t="n">
-        <v>435.0739032147529</v>
+        <v>476.9540229875739</v>
       </c>
       <c r="P20" t="n">
-        <v>371.3255106032923</v>
+        <v>407.0692238985799</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.8499942327434</v>
+        <v>305.6920343340393</v>
       </c>
       <c r="R20" t="n">
-        <v>162.204960703986</v>
+        <v>177.8187751199602</v>
       </c>
       <c r="S20" t="n">
-        <v>58.84218720541391</v>
+        <v>64.5063234122714</v>
       </c>
       <c r="T20" t="n">
-        <v>11.30363903419415</v>
+        <v>12.39172488150161</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2065770697282768</v>
+        <v>0.2264621337567397</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.381605956325381</v>
+        <v>1.514599046699706</v>
       </c>
       <c r="H21" t="n">
-        <v>13.3434048939846</v>
+        <v>14.62783816154716</v>
       </c>
       <c r="I21" t="n">
-        <v>47.56845068927299</v>
+        <v>52.14737945873988</v>
       </c>
       <c r="J21" t="n">
-        <v>130.5314644965133</v>
+        <v>143.0963950217472</v>
       </c>
       <c r="K21" t="n">
-        <v>223.0990635703138</v>
+        <v>244.5745311506275</v>
       </c>
       <c r="L21" t="n">
-        <v>299.9842231047718</v>
+        <v>328.8606395038111</v>
       </c>
       <c r="M21" t="n">
-        <v>350.0674390215668</v>
+        <v>383.7648549466754</v>
       </c>
       <c r="N21" t="n">
-        <v>359.3326824742928</v>
+        <v>393.9219687291485</v>
       </c>
       <c r="O21" t="n">
-        <v>328.7192031262409</v>
+        <v>360.361642483855</v>
       </c>
       <c r="P21" t="n">
-        <v>263.8261409056773</v>
+        <v>289.2219881368938</v>
       </c>
       <c r="Q21" t="n">
-        <v>176.3607883898855</v>
+        <v>193.3372397155624</v>
       </c>
       <c r="R21" t="n">
-        <v>85.78076279711446</v>
+        <v>94.03800046088176</v>
       </c>
       <c r="S21" t="n">
-        <v>25.66272467121923</v>
+        <v>28.13301299461952</v>
       </c>
       <c r="T21" t="n">
-        <v>5.568841552030809</v>
+        <v>6.104897034723812</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0908951287056172</v>
+        <v>0.09964467412498068</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.158292022631143</v>
+        <v>1.269788962073524</v>
       </c>
       <c r="H22" t="n">
-        <v>10.29826907393872</v>
+        <v>11.28957822643552</v>
       </c>
       <c r="I22" t="n">
-        <v>34.83300009876202</v>
+        <v>38.18601715035652</v>
       </c>
       <c r="J22" t="n">
-        <v>81.89124600002181</v>
+        <v>89.77407961859811</v>
       </c>
       <c r="K22" t="n">
-        <v>134.5724731747819</v>
+        <v>147.5263903209057</v>
       </c>
       <c r="L22" t="n">
-        <v>172.2064339828156</v>
+        <v>188.7829880522764</v>
       </c>
       <c r="M22" t="n">
-        <v>181.5675395111709</v>
+        <v>199.0451915730342</v>
       </c>
       <c r="N22" t="n">
-        <v>177.2502692450004</v>
+        <v>194.3123418053058</v>
       </c>
       <c r="O22" t="n">
-        <v>163.7193124351729</v>
+        <v>179.4788980210832</v>
       </c>
       <c r="P22" t="n">
-        <v>140.0901551734975</v>
+        <v>153.5752031947832</v>
       </c>
       <c r="Q22" t="n">
-        <v>96.99116200414053</v>
+        <v>106.3275102696293</v>
       </c>
       <c r="R22" t="n">
-        <v>52.08102130848756</v>
+        <v>57.09432914923315</v>
       </c>
       <c r="S22" t="n">
-        <v>20.18587097621728</v>
+        <v>22.12895854813585</v>
       </c>
       <c r="T22" t="n">
-        <v>4.949065914878519</v>
+        <v>5.425461928859599</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0631795648707897</v>
+        <v>0.06926121611310136</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M9" t="n">
         <v>4.562286607642875</v>
@@ -35266,7 +35266,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O9" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>4.562286607642875</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P10" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K11" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L11" t="n">
-        <v>153.7913200468045</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M11" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N11" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O11" t="n">
-        <v>185.8268607441512</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P11" t="n">
-        <v>123.7494305716377</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L12" t="n">
-        <v>148.2266905659562</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M12" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N12" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O12" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P12" t="n">
-        <v>118.240000033741</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.9385470877688</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>192.2171678043497</v>
+        <v>86.19340501174989</v>
       </c>
       <c r="M13" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N13" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O13" t="n">
-        <v>181.0986910958077</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P13" t="n">
-        <v>131.2029511204531</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.560263827496654</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K14" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L14" t="n">
-        <v>153.7913200468045</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M14" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N14" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O14" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P14" t="n">
-        <v>123.7494305716377</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L15" t="n">
-        <v>148.2266905659562</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M15" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N15" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O15" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P15" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.61687799649638</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.3800667966406</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L16" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M16" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N16" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O16" t="n">
-        <v>181.0986910958077</v>
+        <v>100.2010091933411</v>
       </c>
       <c r="P16" t="n">
-        <v>131.2029511204531</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.1162276214431</v>
+        <v>59.21272703501506</v>
       </c>
       <c r="K17" t="n">
-        <v>108.3773731231234</v>
+        <v>139.9955570407558</v>
       </c>
       <c r="L17" t="n">
-        <v>171.7262216693262</v>
+        <v>210.951374690222</v>
       </c>
       <c r="M17" t="n">
-        <v>223.0678404592937</v>
+        <v>266.7133810728917</v>
       </c>
       <c r="N17" t="n">
-        <v>231.3377238320439</v>
+        <v>275.6894949227778</v>
       </c>
       <c r="O17" t="n">
-        <v>204.9756917930661</v>
+        <v>246.8558115658872</v>
       </c>
       <c r="P17" t="n">
-        <v>140.0925148480228</v>
+        <v>175.8362281433104</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.54430435829389</v>
+        <v>83.38634445958982</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>129.7848731702555</v>
+        <v>20.9447572324082</v>
       </c>
       <c r="K18" t="n">
-        <v>85.25762459595481</v>
+        <v>106.7330921762685</v>
       </c>
       <c r="L18" t="n">
-        <v>161.4298433248977</v>
+        <v>190.3062597239369</v>
       </c>
       <c r="M18" t="n">
-        <v>207.9334050995485</v>
+        <v>241.6308210246571</v>
       </c>
       <c r="N18" t="n">
-        <v>227.9909703909595</v>
+        <v>262.5802566458152</v>
       </c>
       <c r="O18" t="n">
-        <v>186.1229586817965</v>
+        <v>217.7653980394105</v>
       </c>
       <c r="P18" t="n">
-        <v>129.8517334913471</v>
+        <v>155.2475807225636</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.86648894985294</v>
+        <v>263.43275336539</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>112.302981348899</v>
+        <v>125.2568984950229</v>
       </c>
       <c r="L19" t="n">
-        <v>199.7964592431317</v>
+        <v>216.3730133125926</v>
       </c>
       <c r="M19" t="n">
-        <v>221.1514164730115</v>
+        <v>238.6290685348748</v>
       </c>
       <c r="N19" t="n">
-        <v>221.382441624229</v>
+        <v>238.4445141845344</v>
       </c>
       <c r="O19" t="n">
-        <v>188.3044403492126</v>
+        <v>204.0640259351229</v>
       </c>
       <c r="P19" t="n">
-        <v>137.368714438391</v>
+        <v>150.8537624596767</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.82911875244615</v>
+        <v>20.16546701793494</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.1162276214431</v>
+        <v>59.21272703501506</v>
       </c>
       <c r="K20" t="n">
-        <v>108.3773731231234</v>
+        <v>139.9955570407558</v>
       </c>
       <c r="L20" t="n">
-        <v>171.7262216693262</v>
+        <v>210.951374690222</v>
       </c>
       <c r="M20" t="n">
-        <v>223.0678404592937</v>
+        <v>266.7133810728917</v>
       </c>
       <c r="N20" t="n">
-        <v>231.3377238320439</v>
+        <v>275.6894949227778</v>
       </c>
       <c r="O20" t="n">
-        <v>204.9756917930661</v>
+        <v>246.8558115658872</v>
       </c>
       <c r="P20" t="n">
-        <v>140.0925148480228</v>
+        <v>175.8362281433104</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.54430435829389</v>
+        <v>83.38634445958982</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.693837829846615</v>
+        <v>142.3498036954894</v>
       </c>
       <c r="K21" t="n">
-        <v>85.25762459595481</v>
+        <v>106.7330921762685</v>
       </c>
       <c r="L21" t="n">
-        <v>161.4298433248977</v>
+        <v>190.3062597239369</v>
       </c>
       <c r="M21" t="n">
-        <v>207.9334050995485</v>
+        <v>241.6308210246571</v>
       </c>
       <c r="N21" t="n">
-        <v>227.9909703909595</v>
+        <v>262.5802566458152</v>
       </c>
       <c r="O21" t="n">
-        <v>186.1229586817965</v>
+        <v>217.7653980394105</v>
       </c>
       <c r="P21" t="n">
-        <v>129.8517334913471</v>
+        <v>155.2475807225636</v>
       </c>
       <c r="Q21" t="n">
-        <v>171.9575242902624</v>
+        <v>142.0277069023084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>112.302981348899</v>
+        <v>125.2568984950229</v>
       </c>
       <c r="L22" t="n">
-        <v>199.7964592431317</v>
+        <v>216.3730133125926</v>
       </c>
       <c r="M22" t="n">
-        <v>221.1514164730115</v>
+        <v>238.6290685348748</v>
       </c>
       <c r="N22" t="n">
-        <v>221.382441624229</v>
+        <v>238.4445141845344</v>
       </c>
       <c r="O22" t="n">
-        <v>188.3044403492126</v>
+        <v>204.0640259351229</v>
       </c>
       <c r="P22" t="n">
-        <v>137.368714438391</v>
+        <v>150.8537624596767</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.82911875244615</v>
+        <v>20.16546701793494</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L24" t="n">
-        <v>436.6197581489558</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M24" t="n">
         <v>366.9313322820406</v>
@@ -36454,10 +36454,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113671</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K27" t="n">
-        <v>355.33095442155</v>
+        <v>187.5431097317924</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
@@ -36691,13 +36691,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P27" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q27" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K30" t="n">
-        <v>379.9148430313208</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L30" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M30" t="n">
         <v>366.9313322820406</v>
@@ -36925,16 +36925,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O30" t="n">
-        <v>335.4246819961231</v>
+        <v>497.4319917882564</v>
       </c>
       <c r="P30" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K33" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L33" t="n">
-        <v>491.0077074256862</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
-        <v>366.9313322820406</v>
+        <v>622.4553810291984</v>
       </c>
       <c r="N33" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O33" t="n">
         <v>335.4246819961231</v>
@@ -37168,10 +37168,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>117.9333660065836</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L36" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489567</v>
       </c>
       <c r="M36" t="n">
         <v>366.9313322820406</v>
@@ -37405,7 +37405,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K39" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
@@ -37639,13 +37639,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P39" t="n">
-        <v>249.6795291235323</v>
+        <v>280.0487856294267</v>
       </c>
       <c r="Q39" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.98022089091745</v>
+        <v>117.9333660065836</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L42" t="n">
-        <v>640.5848321000391</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
-        <v>553.5225306839442</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N42" t="n">
         <v>391.197099592874</v>
@@ -37879,7 +37879,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
         <v>186.5874962434848</v>
@@ -38104,19 +38104,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M45" t="n">
-        <v>622.4553810291975</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N45" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
-        <v>249.6795291235323</v>
+        <v>418.4229873015959</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
         <v>24.58388860977094</v>
